--- a/inventarioABC.xlsx
+++ b/inventarioABC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YaKerTaker\Google Drive\6toSEMESTRE\MCTD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E76060C-75E5-4C3B-B58A-D8E92AC562EA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB28322-EE7E-4068-8FF2-8E6EBBEF9AE4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15555" yWindow="1485" windowWidth="13170" windowHeight="7875" xr2:uid="{5AD81E03-FB47-4F85-A8B5-43AA17C26BCC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{5AD81E03-FB47-4F85-A8B5-43AA17C26BCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Numero</t>
   </si>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -144,7 +153,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -156,6 +165,10 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -173,6 +186,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>189718</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D55A13E6-9AAC-4582-AACD-EDF6D77F8961}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4333874" y="0"/>
+          <a:ext cx="3267076" cy="2475718"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -474,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A4D73F-41A2-4320-AF1A-C81D18BE23A0}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,7 +753,7 @@
         <v>24</v>
       </c>
       <c r="E15" s="4">
-        <f>C15*D15</f>
+        <f t="shared" ref="E15:E24" si="0">C15*D15</f>
         <v>288</v>
       </c>
       <c r="F15" s="5">
@@ -696,6 +764,13 @@
         <f>F15</f>
         <v>0.25531914893617019</v>
       </c>
+      <c r="H15" s="7">
+        <f>1/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -711,19 +786,25 @@
         <v>15</v>
       </c>
       <c r="E16" s="4">
-        <f>C16*D16</f>
+        <f t="shared" si="0"/>
         <v>210</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" ref="F16:F24" si="0">E16/$E$25</f>
+        <f t="shared" ref="F16:F24" si="1">E16/$E$25</f>
         <v>0.18617021276595744</v>
       </c>
       <c r="G16" s="6">
         <f>G15+F16</f>
         <v>0.4414893617021276</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -737,19 +818,25 @@
         <v>20</v>
       </c>
       <c r="E17" s="4">
-        <f>C17*D17</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.12411347517730496</v>
       </c>
       <c r="G17" s="6">
-        <f t="shared" ref="G17:G24" si="1">G16+F17</f>
+        <f t="shared" ref="G17:G24" si="2">G16+F17</f>
         <v>0.56560283687943258</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10</v>
       </c>
@@ -763,19 +850,25 @@
         <v>7</v>
       </c>
       <c r="E18" s="4">
-        <f>C18*D18</f>
+        <f t="shared" si="0"/>
         <v>112</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.9290780141843976E-2</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.66489361702127658</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7</v>
       </c>
@@ -789,19 +882,25 @@
         <v>8</v>
       </c>
       <c r="E19" s="4">
-        <f>C19*D19</f>
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.5106382978723402E-2</v>
       </c>
       <c r="G19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9</v>
       </c>
@@ -815,19 +914,25 @@
         <v>15</v>
       </c>
       <c r="E20" s="4">
-        <f>C20*D20</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.9787234042553196E-2</v>
       </c>
       <c r="G20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.82978723404255317</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -841,19 +946,25 @@
         <v>10</v>
       </c>
       <c r="E21" s="4">
-        <f>C21*D21</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.0921985815602842E-2</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.900709219858156</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8</v>
       </c>
@@ -867,19 +978,25 @@
         <v>17</v>
       </c>
       <c r="E22" s="4">
-        <f>C22*D22</f>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.0283687943262408E-2</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96099290780141844</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6</v>
       </c>
@@ -893,19 +1010,25 @@
         <v>6.5</v>
       </c>
       <c r="E23" s="4">
-        <f>C23*D23</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3049645390070921E-2</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.98404255319148937</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -919,20 +1042,26 @@
         <v>2</v>
       </c>
       <c r="E24" s="4">
-        <f>C24*D24</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5957446808510637E-2</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="H24" s="7">
+        <v>1</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
         <v>21</v>
       </c>
       <c r="E25" s="4">
@@ -943,5 +1072,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>